--- a/docs/API仕様書/API整理.xlsx
+++ b/docs/API仕様書/API整理.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MP21-06\Desktop\ksi\AI inside OCR Client\ocr_client_gemini\docs\API仕様書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E62DBA80-D440-4CDC-96E5-40FC34FC5FEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A8F337A-9934-41F8-9E67-73DA5989E083}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="35">
   <si>
     <t>クラウド版</t>
     <rPh sb="4" eb="5">
@@ -212,10 +212,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>着手可能</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>？？？？</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -242,6 +238,42 @@
     </rPh>
     <rPh sb="21" eb="22">
       <t>オナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>実装中</t>
+    <rPh sb="0" eb="2">
+      <t>ジッソウ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>チュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>※非定型API V1はクラウドで実行不可。</t>
+    <rPh sb="1" eb="2">
+      <t>ヒ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>テイケイ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ジッコウ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>フカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>※APIは一般非公開。非定型API V1はCubeのみ。</t>
+    <rPh sb="11" eb="12">
+      <t>ヒ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>テイケイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -250,7 +282,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -287,6 +319,12 @@
       <name val="Yu Gothic"/>
       <family val="3"/>
       <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Yu Gothic"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -334,7 +372,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="26">
+  <borders count="27">
     <border>
       <left/>
       <right/>
@@ -681,11 +719,24 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -694,32 +745,11 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -731,35 +761,14 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -769,9 +778,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -780,14 +786,60 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -1078,283 +1130,287 @@
     <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="4.875" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.5" style="1"/>
+    <col min="5" max="5" width="13.625" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="54.875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="45.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="111.875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="38" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="71.125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="46.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:9" ht="19.5" thickBot="1"/>
     <row r="2" spans="2:9" s="2" customFormat="1" thickBot="1">
-      <c r="B2" s="32" t="s">
+      <c r="B2" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="33" t="s">
+      <c r="C2" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="33" t="s">
+      <c r="D2" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="E2" s="33" t="s">
+      <c r="E2" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="33" t="s">
+      <c r="F2" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="33" t="s">
+      <c r="G2" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="H2" s="36" t="s">
+      <c r="H2" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="I2" s="4" t="s">
-        <v>31</v>
+      <c r="I2" s="44" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="2:9">
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="E3" s="27" t="s">
+      <c r="D3" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="G3" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="H3" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="I3" s="7"/>
+      <c r="F3" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="H3" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="I3" s="5"/>
     </row>
     <row r="4" spans="2:9">
-      <c r="B4" s="14"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="35" t="s">
-        <v>30</v>
-      </c>
-      <c r="E4" s="28" t="s">
+      <c r="B4" s="40"/>
+      <c r="C4" s="36"/>
+      <c r="D4" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="34" t="s">
-        <v>12</v>
-      </c>
-      <c r="G4" s="31" t="s">
-        <v>13</v>
-      </c>
-      <c r="H4" s="37" t="s">
-        <v>24</v>
-      </c>
-      <c r="I4" s="9"/>
+      <c r="F4" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="I4" s="6" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="5" spans="2:9">
-      <c r="B5" s="14"/>
-      <c r="C5" s="21"/>
-      <c r="D5" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="E5" s="25" t="s">
+      <c r="B5" s="40"/>
+      <c r="C5" s="37"/>
+      <c r="D5" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="E5" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="F5" s="22" t="s">
+      <c r="F5" s="33" t="s">
         <v>14</v>
       </c>
       <c r="G5" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="H5" s="38" t="s">
+      <c r="H5" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="I5" s="41" t="s">
-        <v>32</v>
+      <c r="I5" s="31" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="6" spans="2:9" ht="19.5" thickBot="1">
-      <c r="B6" s="14"/>
-      <c r="C6" s="10"/>
-      <c r="D6" s="26"/>
-      <c r="E6" s="26"/>
-      <c r="F6" s="23"/>
+      <c r="B6" s="40"/>
+      <c r="C6" s="38"/>
+      <c r="D6" s="28"/>
+      <c r="E6" s="28"/>
+      <c r="F6" s="34"/>
       <c r="G6" s="30"/>
-      <c r="H6" s="39" t="s">
+      <c r="H6" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="I6" s="42"/>
+      <c r="I6" s="32"/>
     </row>
     <row r="7" spans="2:9">
-      <c r="B7" s="14"/>
-      <c r="C7" s="5" t="s">
+      <c r="B7" s="40"/>
+      <c r="C7" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="16" t="s">
+      <c r="D7" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="E7" s="27" t="s">
+      <c r="E7" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="F7" s="6" t="s">
+      <c r="F7" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G7" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="H7" s="19"/>
-      <c r="I7" s="7"/>
+      <c r="G7" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="H7" s="12"/>
+      <c r="I7" s="5"/>
     </row>
     <row r="8" spans="2:9">
-      <c r="B8" s="14"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="17" t="s">
+      <c r="B8" s="40"/>
+      <c r="C8" s="36"/>
+      <c r="D8" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="E8" s="28" t="s">
+      <c r="E8" s="16" t="s">
         <v>4</v>
       </c>
       <c r="F8" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="G8" s="31" t="s">
+      <c r="G8" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="H8" s="20"/>
-      <c r="I8" s="9"/>
+      <c r="H8" s="13"/>
+      <c r="I8" s="6"/>
     </row>
     <row r="9" spans="2:9" ht="19.5" thickBot="1">
-      <c r="B9" s="15"/>
-      <c r="C9" s="10"/>
-      <c r="D9" s="18" t="s">
+      <c r="B9" s="41"/>
+      <c r="C9" s="38"/>
+      <c r="D9" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="E9" s="24" t="s">
+      <c r="E9" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="F9" s="11" t="s">
+      <c r="F9" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="G9" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="H9" s="43" t="s">
+      <c r="G9" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="H9" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="I9" s="12"/>
+      <c r="I9" s="8"/>
     </row>
     <row r="10" spans="2:9">
-      <c r="B10" s="13" t="s">
+      <c r="B10" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="C10" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="D10" s="16" t="s">
+      <c r="D10" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="E10" s="27" t="s">
+      <c r="E10" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="F10" s="6" t="s">
+      <c r="F10" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="G10" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="H10" s="19"/>
-      <c r="I10" s="7"/>
+      <c r="G10" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="H10" s="12"/>
+      <c r="I10" s="5"/>
     </row>
     <row r="11" spans="2:9">
-      <c r="B11" s="14"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="35" t="s">
-        <v>30</v>
-      </c>
-      <c r="E11" s="28" t="s">
+      <c r="B11" s="40"/>
+      <c r="C11" s="36"/>
+      <c r="D11" s="43" t="s">
+        <v>29</v>
+      </c>
+      <c r="E11" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="F11" s="34" t="s">
+      <c r="F11" s="20" t="s">
         <v>12</v>
       </c>
       <c r="G11" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="H11" s="37" t="s">
+      <c r="H11" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="I11" s="9"/>
+      <c r="I11" s="42" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="12" spans="2:9">
-      <c r="B12" s="14"/>
-      <c r="C12" s="21"/>
-      <c r="D12" s="25" t="s">
+      <c r="B12" s="40"/>
+      <c r="C12" s="37"/>
+      <c r="D12" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="E12" s="25" t="s">
+      <c r="E12" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="F12" s="22" t="s">
+      <c r="F12" s="33" t="s">
         <v>14</v>
       </c>
       <c r="G12" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="H12" s="38" t="s">
+      <c r="H12" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="I12" s="41" t="s">
-        <v>32</v>
+      <c r="I12" s="31" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="13" spans="2:9" ht="19.5" thickBot="1">
-      <c r="B13" s="14"/>
-      <c r="C13" s="10"/>
-      <c r="D13" s="26"/>
-      <c r="E13" s="26"/>
-      <c r="F13" s="23"/>
+      <c r="B13" s="40"/>
+      <c r="C13" s="38"/>
+      <c r="D13" s="28"/>
+      <c r="E13" s="28"/>
+      <c r="F13" s="34"/>
       <c r="G13" s="30"/>
-      <c r="H13" s="39" t="s">
+      <c r="H13" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="I13" s="42"/>
+      <c r="I13" s="32"/>
     </row>
     <row r="14" spans="2:9">
-      <c r="B14" s="14"/>
-      <c r="C14" s="5" t="s">
+      <c r="B14" s="40"/>
+      <c r="C14" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="D14" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="E14" s="27" t="s">
+      <c r="D14" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="F14" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="G14" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="H14" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="I14" s="7" t="s">
+      <c r="F14" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="H14" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="I14" s="5" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="15" spans="2:9">
-      <c r="B15" s="14"/>
-      <c r="C15" s="8"/>
-      <c r="D15" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="E15" s="28" t="s">
+      <c r="B15" s="40"/>
+      <c r="C15" s="36"/>
+      <c r="D15" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E15" s="16" t="s">
         <v>4</v>
       </c>
       <c r="F15" s="3" t="s">
@@ -1363,37 +1419,43 @@
       <c r="G15" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="H15" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="I15" s="9" t="s">
+      <c r="H15" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="I15" s="6" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="16" spans="2:9" ht="19.5" thickBot="1">
-      <c r="B16" s="15"/>
-      <c r="C16" s="10"/>
-      <c r="D16" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="E16" s="24" t="s">
+      <c r="B16" s="41"/>
+      <c r="C16" s="38"/>
+      <c r="D16" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="E16" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="F16" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="G16" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="H16" s="40" t="s">
-        <v>20</v>
-      </c>
-      <c r="I16" s="12" t="s">
+      <c r="F16" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="H16" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="I16" s="8" t="s">
         <v>20</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="C3:C6"/>
+    <mergeCell ref="C7:C9"/>
+    <mergeCell ref="C10:C13"/>
+    <mergeCell ref="C14:C16"/>
+    <mergeCell ref="B3:B9"/>
+    <mergeCell ref="B10:B16"/>
     <mergeCell ref="D5:D6"/>
     <mergeCell ref="D12:D13"/>
     <mergeCell ref="G12:G13"/>
@@ -1404,12 +1466,6 @@
     <mergeCell ref="E5:E6"/>
     <mergeCell ref="I12:I13"/>
     <mergeCell ref="F5:F6"/>
-    <mergeCell ref="C3:C6"/>
-    <mergeCell ref="C7:C9"/>
-    <mergeCell ref="C10:C13"/>
-    <mergeCell ref="C14:C16"/>
-    <mergeCell ref="B3:B9"/>
-    <mergeCell ref="B10:B16"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
